--- a/data/minfin/18_questions.xlsx
+++ b/data/minfin/18_questions.xlsx
@@ -93,12 +93,6 @@
     <t>В Российской Федерации установлены федеральные, региональные, местные налоги и сборы</t>
   </si>
   <si>
-    <t>В соответствии со статьей 12 НК РФ в Российской Федерации устанавливаются следующие виды налогов и сборов:
-• федеральные
-• региональные
-• местные</t>
-  </si>
-  <si>
     <t>Условия, налог, считается, установленным</t>
   </si>
   <si>
@@ -129,28 +123,82 @@
     <t>Существуют камеральные и выездные налоговые проверки, целью которых является контроль за соблюдением законодательства о налогах и сборах</t>
   </si>
   <si>
-    <t>Видами налоговых проверок: 
+    <t xml:space="preserve">Решения, выносятся, по результатам, рассмотрения, материалов, налоговой проверки </t>
+  </si>
+  <si>
+    <t>По результатам налоговой проверки выносится одно из следующих решений: о привлечении к ответственности за совершение налогового правонарушения  или об отказе в привлечении к ответственности</t>
+  </si>
+  <si>
+    <t>По результатам рассмотрения материалов налоговой проверки руководитель (заместитель руководителя) налогового органа выносит одно из следующих решений:
+1) о привлечении к ответственности за совершение налогового правонарушения;
+2) об отказе в привлечении к ответственности за совершение налогового правонарушения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии со статьей 12 НК РФ в Российской Федерации устанавливаются следующие виды налогов и сборов:
+• федеральные
+• региональные
+• местные
+Из них 8 являются федеральными, а именно: 
+• налог на добавленную стоимость, 
+• акцизы, 
+• налог на доходы физических лиц, 
+• налог на прибыль организаций, 
+• налог на добычу полезных ископаемых, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• водный налог, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+• сборы за пользование объектами животного мира и за пользование объектами водных биологических ресурсов;
+• государственная пошлина</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Региональные налоги включают в себя 3 налога: 
+• налог на имущество организаций, 
+• налог на игорный бизнес, 
+• транспортный налог.
+Местные налоги и сборы включают в себя 2 налога и 1 сбор:
+• земельный налог, 
+• налог на имущество физических лиц,
+• торговый сбор</t>
+    </r>
+  </si>
+  <si>
+    <t>Виды налоговых проверок: 
 • камеральные налоговые проверки,
 • выездные налоговые проверки. 
 Целью камеральной и выездной налоговых проверок является контроль за соблюдением законодательства о налогах и сборах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Решения, выносятся, по результатам, рассмотрения, материалов, налоговой проверки </t>
-  </si>
-  <si>
-    <t>По результатам налоговой проверки выносится одно из следующих решений: о привлечении к ответственности за совершение налогового правонарушения  или об отказе в привлечении к ответственности</t>
-  </si>
-  <si>
-    <t>По результатам рассмотрения материалов налоговой проверки руководитель (заместитель руководителя) налогового органа выносит одно из следующих решений:
-1) о привлечении к ответственности за совершение налогового правонарушения;
-2) об отказе в привлечении к ответственности за совершение налогового правонарушения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +228,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,10 +637,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -578,7 +648,7 @@
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" style="2" customWidth="1"/>
@@ -629,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="240.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -639,8 +709,8 @@
       <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>24</v>
+      <c r="D2" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -655,13 +725,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -673,16 +743,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="110.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -690,13 +760,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="189">
@@ -707,13 +777,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">

--- a/data/minfin/18_questions.xlsx
+++ b/data/minfin/18_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,12 +126,15 @@
     <t xml:space="preserve">Решения, выносятся, по результатам, рассмотрения, материалов, налоговой проверки </t>
   </si>
   <si>
-    <t>По результатам налоговой проверки выносится одно из следующих решений: о привлечении к ответственности за совершение налогового правонарушения  или об отказе в привлечении к ответственности</t>
-  </si>
-  <si>
     <t>По результатам рассмотрения материалов налоговой проверки руководитель (заместитель руководителя) налогового органа выносит одно из следующих решений:
 1) о привлечении к ответственности за совершение налогового правонарушения;
 2) об отказе в привлечении к ответственности за совершение налогового правонарушения</t>
+  </si>
+  <si>
+    <t>Виды налоговых проверок: 
+• камеральные налоговые проверки,
+• выездные налоговые проверки. 
+Целью камеральной и выездной налоговых проверок является контроль за соблюдением законодательства о налогах и сборах</t>
   </si>
   <si>
     <r>
@@ -166,7 +169,7 @@
       </rPr>
       <t xml:space="preserve">
 • сборы за пользование объектами животного мира и за пользование объектами водных биологических ресурсов;
-• государственная пошлина</t>
+• государственная пошлина.</t>
     </r>
     <r>
       <rPr>
@@ -188,10 +191,7 @@
     </r>
   </si>
   <si>
-    <t>Виды налоговых проверок: 
-• камеральные налоговые проверки,
-• выездные налоговые проверки. 
-Целью камеральной и выездной налоговых проверок является контроль за соблюдением законодательства о налогах и сборах</t>
+    <t>По результатам налоговой проверки вын\+осится одно из следующих решений: о привлечении к ответственности за совершение налогового правонарушения  или об отказе в привлечении к ответственности</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,10 +637,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -763,13 +763,13 @@
         <v>31</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -777,10 +777,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
